--- a/dist/Overwatch Best Pick/_internal/heroes enemy.xlsx
+++ b/dist/Overwatch Best Pick/_internal/heroes enemy.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Página1 (1)" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="47">
   <si>
     <t>Hero</t>
   </si>
@@ -112,7 +113,7 @@
     <t>Sojourn</t>
   </si>
   <si>
-    <t>Soldier: 76</t>
+    <t>Soldier 76</t>
   </si>
   <si>
     <t>Sombra</t>
@@ -151,7 +152,7 @@
     <t>Zenyatta</t>
   </si>
   <si>
-    <t>Soldier 76</t>
+    <t>Soldier: 76</t>
   </si>
 </sst>
 </file>
@@ -169,28 +170,24 @@
       <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +198,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,21 +218,21 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -239,6 +242,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -448,9 +455,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +482,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -590,10 +600,7422 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT26" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR27" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT27" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AT33" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT38" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W39" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT39" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT40" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AT41" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP42" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT42" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AR43" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AS43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT43" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AQ44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AR44" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AS44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AT44" s="3">
+        <v>-2.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AO45" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AQ45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS45" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="AT45" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR46" s="3">
+        <v>-2.0</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AT46" s="3">
+        <v>-10.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="4">
         <v>0.0</v>
       </c>
@@ -730,8 +8152,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -870,8 +8292,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -1010,8 +8432,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -1150,8 +8572,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
@@ -1290,8 +8712,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
@@ -1430,8 +8852,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
@@ -1570,8 +8992,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
@@ -1710,8 +9132,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
@@ -1850,8 +9272,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
@@ -1990,8 +9412,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
@@ -2130,8 +9552,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4">
@@ -2270,8 +9692,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
@@ -2410,8 +9832,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4">
@@ -2550,8 +9972,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4">
@@ -2690,8 +10112,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -2830,8 +10252,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4">
@@ -2970,8 +10392,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4">
@@ -3110,8 +10532,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4">
@@ -3250,8 +10672,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -3290,7 +10712,7 @@
       <c r="M21" s="4">
         <v>0.0</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="4">
         <v>1.0</v>
       </c>
@@ -3388,8 +10810,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -3528,8 +10950,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4">
@@ -3586,8 +11008,8 @@
       <c r="S23" s="4">
         <v>-1.0</v>
       </c>
-      <c r="T23" s="4">
-        <v>-1.0</v>
+      <c r="T23" s="6">
+        <v>-2.0</v>
       </c>
       <c r="U23" s="4">
         <v>0.0</v>
@@ -3658,8 +11080,8 @@
       <c r="AQ23" s="4">
         <v>1.0</v>
       </c>
-      <c r="AR23" s="4">
-        <v>0.0</v>
+      <c r="AR23" s="6">
+        <v>-1.0</v>
       </c>
       <c r="AS23" s="4">
         <v>0.0</v>
@@ -3668,8 +11090,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -3808,8 +11230,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -3938,8 +11360,8 @@
       <c r="AQ25" s="4">
         <v>1.0</v>
       </c>
-      <c r="AR25" s="4">
-        <v>-1.0</v>
+      <c r="AR25" s="6">
+        <v>0.0</v>
       </c>
       <c r="AS25" s="4">
         <v>-1.0</v>
@@ -3948,8 +11370,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -4088,8 +11510,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4">
@@ -4228,8 +11650,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="4">
@@ -4368,12 +11790,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <v>1.0</v>
+      <c r="B29" s="6">
+        <v>0.0</v>
       </c>
       <c r="C29" s="4">
         <v>-1.0</v>
@@ -4393,14 +11815,14 @@
       <c r="H29" s="4">
         <v>0.0</v>
       </c>
-      <c r="I29" s="4">
-        <v>1.0</v>
+      <c r="I29" s="6">
+        <v>0.0</v>
       </c>
       <c r="J29" s="4">
         <v>-2.0</v>
       </c>
-      <c r="K29" s="4">
-        <v>0.0</v>
+      <c r="K29" s="6">
+        <v>-2.0</v>
       </c>
       <c r="L29" s="4">
         <v>0.0</v>
@@ -4408,7 +11830,7 @@
       <c r="M29" s="4">
         <v>-1.0</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="6">
         <v>0.0</v>
       </c>
       <c r="O29" s="4">
@@ -4465,8 +11887,8 @@
       <c r="AF29" s="4">
         <v>0.0</v>
       </c>
-      <c r="AG29" s="4">
-        <v>0.0</v>
+      <c r="AG29" s="6">
+        <v>-1.0</v>
       </c>
       <c r="AH29" s="4">
         <v>0.0</v>
@@ -4474,14 +11896,14 @@
       <c r="AI29" s="4">
         <v>0.0</v>
       </c>
-      <c r="AJ29" s="4">
-        <v>1.0</v>
+      <c r="AJ29" s="6">
+        <v>0.0</v>
       </c>
       <c r="AK29" s="4">
         <v>0.0</v>
       </c>
-      <c r="AL29" s="4">
-        <v>2.0</v>
+      <c r="AL29" s="6">
+        <v>1.0</v>
       </c>
       <c r="AM29" s="4">
         <v>-1.0</v>
@@ -4489,11 +11911,11 @@
       <c r="AN29" s="4">
         <v>0.0</v>
       </c>
-      <c r="AO29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="AP29" s="4">
-        <v>1.0</v>
+      <c r="AO29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AP29" s="6">
+        <v>2.0</v>
       </c>
       <c r="AQ29" s="4">
         <v>0.0</v>
@@ -4508,8 +11930,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="4">
@@ -4648,8 +12070,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="4">
@@ -4788,8 +12210,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="4">
@@ -4928,8 +12350,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="4">
@@ -5068,9 +12490,9 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>-1.0</v>
@@ -5208,8 +12630,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="4">
@@ -5348,8 +12770,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="4">
@@ -5488,8 +12910,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="4">
@@ -5628,8 +13050,8 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="4">
@@ -5768,8 +13190,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="4">
@@ -5908,8 +13330,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4">
@@ -6048,8 +13470,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="4">
@@ -6188,8 +13610,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="4">
@@ -6328,8 +13750,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="4">
@@ -6468,8 +13890,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="4">
@@ -6608,8 +14030,8 @@
         <v>-2.0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="4">
@@ -6748,8 +14170,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="4">
@@ -6888,6 +14310,960 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
